--- a/K3Entropy_TwosidedNIKKEILO.xlsx
+++ b/K3Entropy_TwosidedNIKKEILO.xlsx
@@ -440,7 +440,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.946299795385467</v>
+        <v>1.96148183601991</v>
       </c>
     </row>
   </sheetData>
